--- a/Nowcasts/2025Q4/tables/nowcasts_2026Q1_Nr5_Np3_Nj0.xlsx
+++ b/Nowcasts/2025Q4/tables/nowcasts_2026Q1_Nr5_Np3_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Row</t>
   </si>
@@ -109,6 +109,57 @@
   </si>
   <si>
     <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -190,57 +241,57 @@
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="12.64453125" customWidth="true"/>
     <col min="3" max="3" width="14.24609375" customWidth="true"/>
-    <col min="4" max="4" width="15.64453125" customWidth="true"/>
+    <col min="4" max="4" width="16.24609375" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
-    <col min="6" max="6" width="16.24609375" customWidth="true"/>
-    <col min="7" max="7" width="16.24609375" customWidth="true"/>
-    <col min="8" max="8" width="16.24609375" customWidth="true"/>
+    <col min="6" max="6" width="15.77734375" customWidth="true"/>
+    <col min="7" max="7" width="15.64453125" customWidth="true"/>
+    <col min="8" max="8" width="15.77734375" customWidth="true"/>
     <col min="9" max="9" width="16.24609375" customWidth="true"/>
     <col min="10" max="10" width="15.046875" customWidth="true"/>
-    <col min="11" max="11" width="15.77734375" customWidth="true"/>
+    <col min="11" max="11" width="15.64453125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0">
-        <v>0.25971566674180696</v>
+        <v>0.20553021391162424</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -272,177 +323,177 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0">
-        <v>0.27471316703495896</v>
+        <v>0.26417972731987066</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.00096525044487293685</v>
+        <v>0.0031117432427520439</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.00056364753285053737</v>
+        <v>0.0014266121059829508</v>
       </c>
       <c r="F3" s="0">
-        <v>0.0024785548803816283</v>
+        <v>0.00090739103800634537</v>
       </c>
       <c r="G3" s="0">
-        <v>0.00016998512511396435</v>
+        <v>0.00056851249073968887</v>
       </c>
       <c r="H3" s="0">
-        <v>2.1652102344941738e-05</v>
+        <v>-6.5053593311344338e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.00013041862198850298</v>
+        <v>-0.00082931627857708943</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>9.0829095220623657e-05</v>
+        <v>0.0020513928723112917</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0">
-        <v>0.34278615019060371</v>
+        <v>0.3594355704492081</v>
       </c>
       <c r="C4" s="0">
-        <v>0.017824428492558997</v>
+        <v>0.052108444703458476</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>2.987409543889403e-05</v>
+        <v>-2.3610488208608105e-05</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.00023084055639776966</v>
+        <v>-1.819341885428914e-05</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>8.4580374704745256e-06</v>
+        <v>0.00042250785182827071</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.0001242241199574482</v>
+        <v>-0.011351314844386009</v>
       </c>
       <c r="J4" s="0">
-        <v>0.0006128368449951142</v>
+        <v>0.0025187747411690099</v>
       </c>
       <c r="K4" s="0">
-        <v>-8.65264093369289e-06</v>
+        <v>0.0001492219921994109</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0">
-        <v>0.38420982733619108</v>
+        <v>0.40663405425303928</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>0.0061043917826216635</v>
+        <v>-0.0003886284470617494</v>
       </c>
       <c r="E5" s="0">
-        <v>0.00066660483257404617</v>
+        <v>-1.9849885434121306e-05</v>
       </c>
       <c r="F5" s="0">
-        <v>0.0018666619487084164</v>
+        <v>0.010240593383960484</v>
       </c>
       <c r="G5" s="0">
-        <v>0.00013488698080406481</v>
+        <v>-0.0012026790220853588</v>
       </c>
       <c r="H5" s="0">
-        <v>8.8091552273907156e-05</v>
+        <v>0.00067590350563805231</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.00087020509848917198</v>
+        <v>-0.0015816095805782243</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>0.01233890048842945</v>
+        <v>-0.016012927307851865</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0">
-        <v>0.31582626457985707</v>
+        <v>0.3616764314797617</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.014538792820837448</v>
+        <v>-0.029330317760216246</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>3.7245131906991284e-05</v>
+        <v>-0.00025690364975194458</v>
       </c>
       <c r="F6" s="0">
-        <v>-3.9365037009236523e-05</v>
+        <v>0.0005462108469063056</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-8.2898894550201469e-05</v>
+        <v>0.0010842387472705063</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.0015153772953043596</v>
+        <v>-0.0061053502746208164</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-3.8465383153107879e-05</v>
+        <v>0.00023516441735027538</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0">
-        <v>0.23997944057481757</v>
+        <v>0.25055752813372151</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0036384444244083216</v>
+        <v>-0.027444357120262317</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.0020795993356564233</v>
+        <v>-0.0029439654073500901</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0034078405235333452</v>
+        <v>0.0060742775487421328</v>
       </c>
       <c r="G7" s="0">
-        <v>-0.00011778671694956042</v>
+        <v>0.0023200995973027909</v>
       </c>
       <c r="H7" s="0">
-        <v>-3.5207114084584705e-05</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>-0.00016978318233561382</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.010449297365332899</v>
+        <v>0.0045622995124041665</v>
       </c>
     </row>
     <row r="8">
